--- a/NewtonMethod/Лист Microsoft Excel.xlsx
+++ b/NewtonMethod/Лист Microsoft Excel.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ЭтаКнига" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -500,10 +500,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M14"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A3:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,19 +531,19 @@
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <f>B4^2-4*SIN(B4)</f>
-        <v>8.4355199677605306</v>
+        <f>-(B4^2-90*SIN(B4))</f>
+        <v>10.128793884691014</v>
       </c>
       <c r="D4">
-        <f>2*B4-4*COS(B4)</f>
-        <v>9.9599699864017808</v>
+        <f>-2*B4+90*COS(B4)</f>
+        <v>53.851202890897412</v>
       </c>
       <c r="E4">
         <f>C4/D4</f>
-        <v>0.84694230798661418</v>
+        <v>0.18808853546339457</v>
       </c>
       <c r="J4" s="1"/>
     </row>
@@ -552,19 +553,19 @@
       </c>
       <c r="B5">
         <f>B4-E4</f>
-        <v>2.1530576920133857</v>
+        <v>6.811911464536605</v>
       </c>
       <c r="C5">
-        <f>B5^2-4*SIN(B5)</f>
-        <v>1.2947725052865651</v>
+        <f t="shared" ref="C5:C43" si="0">-(B5^2-90*SIN(B5))</f>
+        <v>-1.0030912192460875</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D9" si="0">2*B5-4*COS(B5)</f>
-        <v>6.5057717099807197</v>
+        <f t="shared" ref="D5:D14" si="1">-2*B5+90*COS(B5)</f>
+        <v>64.086707692563394</v>
       </c>
       <c r="E5">
         <f>C5/D5</f>
-        <v>0.19901905000758199</v>
+        <v>-1.5652094722327044E-2</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>5</v>
@@ -573,19 +574,19 @@
     <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>B5-(C5/D5)</f>
-        <v>1.9540386420058038</v>
+        <v>6.8275635592589321</v>
       </c>
       <c r="C6">
-        <f>B6^2-4*SIN(B6)</f>
-        <v>0.10843855339462483</v>
+        <f t="shared" si="0"/>
+        <v>-5.8556508058984491E-3</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>5.4037954357800198</v>
+        <f t="shared" si="1"/>
+        <v>63.335323457630025</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E5:E9" si="1">C6/D6</f>
-        <v>2.0067109253733638E-2</v>
+        <f t="shared" ref="E6:E9" si="2">C6/D6</f>
+        <v>-9.2454739096986757E-5</v>
       </c>
       <c r="G6">
         <v>2.2274732357238989</v>
@@ -603,19 +604,19 @@
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7">
         <f>B6-(C6/D6)</f>
-        <v>1.9339715327520701</v>
+        <v>6.8276560139980287</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C6:C14" si="2">B7^2-4*SIN(B7)</f>
-        <v>1.151631523863994E-3</v>
+        <f t="shared" si="0"/>
+        <v>-2.0776537468236711E-7</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>5.288919536106083</v>
+        <f t="shared" si="1"/>
+        <v>63.330828925118979</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
-        <v>2.1774419444313796E-4</v>
+        <f t="shared" si="2"/>
+        <v>-3.2806356431561072E-9</v>
       </c>
       <c r="G7">
         <v>1.9674236610105384</v>
@@ -636,19 +637,19 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" ref="B8:B9" si="3">B7-(C7/D7)</f>
-        <v>1.933753788557627</v>
+        <v>6.827656017278664</v>
       </c>
       <c r="C8">
-        <f t="shared" si="2"/>
-        <v>1.3605494642021654E-7</v>
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>5.2876698479704336</v>
+        <f t="shared" si="1"/>
+        <v>63.330828765624716</v>
       </c>
       <c r="E8">
         <f>C8/D8</f>
-        <v>2.5730605414488674E-8</v>
+        <v>-3.3658618540569692E-16</v>
       </c>
       <c r="G8">
         <v>1.9343440097614661</v>
@@ -666,19 +667,19 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="3"/>
-        <v>1.9337537628270216</v>
+        <v>6.827656017278664</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>5.2876697002921045</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-3.3658618540569692E-16</v>
       </c>
       <c r="G9">
         <v>1.9337539517650975</v>
@@ -696,91 +697,613 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" ref="B10:B14" si="4">B9-(C9/D9)</f>
-        <v>1.9337537628270216</v>
+        <v>6.827656017278664</v>
       </c>
       <c r="C10">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
       </c>
       <c r="D10">
-        <f t="shared" ref="D10:D14" si="5">2*B10-4*COS(B10)</f>
-        <v>5.2876697002921045</v>
+        <f t="shared" si="1"/>
+        <v>63.330828765624716</v>
       </c>
       <c r="E10">
-        <f t="shared" ref="E10:E14" si="6">C10/D10</f>
-        <v>0</v>
+        <f t="shared" ref="E10:E14" si="5">C10/D10</f>
+        <v>-3.3658618540569692E-16</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="4"/>
-        <v>1.9337537628270216</v>
+        <v>6.827656017278664</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
       </c>
       <c r="D11">
+        <f t="shared" si="1"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="5"/>
-        <v>5.2876697002921045</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.3658618540569692E-16</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="4"/>
-        <v>1.9337537628270216</v>
+        <v>6.827656017278664</v>
       </c>
       <c r="C12">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
       </c>
       <c r="D12">
+        <f t="shared" si="1"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="5"/>
-        <v>5.2876697002921045</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.3658618540569692E-16</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="4"/>
-        <v>1.9337537628270216</v>
+        <v>6.827656017278664</v>
       </c>
       <c r="C13">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
       </c>
       <c r="D13">
+        <f t="shared" si="1"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="5"/>
-        <v>5.2876697002921045</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <v>-3.3658618540569692E-16</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="4"/>
-        <v>1.9337537628270216</v>
+        <v>6.827656017278664</v>
       </c>
       <c r="C14">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
       </c>
       <c r="D14">
+        <f t="shared" si="1"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="5"/>
-        <v>5.2876697002921045</v>
-      </c>
-      <c r="E14">
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" ref="B15:B23" si="6">B14-(C14/D14)</f>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D23" si="7">-2*B15+90*COS(B15)</f>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E23" si="8">C15/D15</f>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="6"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="6"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="6"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="6"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="6"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="7"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="8"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" ref="B24:B43" si="9">B23-(C23/D23)</f>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:D43" si="10">-2*B24+90*COS(B24)</f>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E43" si="11">C24/D24</f>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="9"/>
+        <v>6.827656017278664</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>-2.1316282072803006E-14</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="10"/>
+        <v>63.330828765624716</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="11"/>
+        <v>-3.3658618540569692E-16</v>
       </c>
     </row>
   </sheetData>
